--- a/implementation/ImplementationWindows_tasks.xlsx
+++ b/implementation/ImplementationWindows_tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/Documents/GitHub/prj1-2020-group-prj1-2020-15/implementation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miro\Documents\GitHub\prj1-2020-group-prj1-2020-15\implementation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B8F1946-36FC-FB47-B2D7-BE94A790093E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74A5CAE-0A8B-49AD-BAB8-481120822538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16420" yWindow="960" windowWidth="12000" windowHeight="15960" xr2:uid="{03FB3E96-410F-C64E-AF8F-D3EC3FECDFFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03FB3E96-410F-C64E-AF8F-D3EC3FECDFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>ADMIN MY PROFILE</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>WINDOWS</t>
+  </si>
+  <si>
+    <t>Miro</t>
   </si>
 </sst>
 </file>
@@ -451,17 +454,17 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.796875" style="1"/>
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
@@ -469,7 +472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -480,7 +483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -488,7 +491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -499,7 +502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -507,7 +510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -518,7 +521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -526,7 +529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -534,7 +537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -542,7 +545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -553,7 +556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -563,8 +566,11 @@
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -575,7 +581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -586,7 +592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -597,7 +603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -608,7 +614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -618,8 +624,11 @@
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>

--- a/implementation/ImplementationWindows_tasks.xlsx
+++ b/implementation/ImplementationWindows_tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miro\Documents\GitHub\prj1-2020-group-prj1-2020-15\implementation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/Documents/GitHub/prj1-2020-group-prj1-2020-15/implementation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74A5CAE-0A8B-49AD-BAB8-481120822538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8783E2-D2A1-D241-8716-C12BC3893B24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{03FB3E96-410F-C64E-AF8F-D3EC3FECDFFC}"/>
+    <workbookView xWindow="1520" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{03FB3E96-410F-C64E-AF8F-D3EC3FECDFFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
   <si>
     <t>ADMIN MY PROFILE</t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>Miro</t>
+  </si>
+  <si>
+    <t>Luc</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Joel</t>
+  </si>
+  <si>
+    <t>Matas</t>
+  </si>
+  <si>
+    <t>Monika</t>
   </si>
 </sst>
 </file>
@@ -453,18 +468,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C820B8-CB52-D340-8CD7-9FACC6875FDF}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.796875" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
@@ -472,7 +487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -482,16 +497,22 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -501,16 +522,22 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -520,32 +547,44 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -555,8 +594,11 @@
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -570,7 +612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -580,8 +622,11 @@
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -591,8 +636,11 @@
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -602,8 +650,11 @@
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -613,8 +664,11 @@
       <c r="C15" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -628,7 +682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -637,6 +691,9 @@
       </c>
       <c r="C17" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
